--- a/medicine/Maladie à coronavirus 2019/Songbird_(film)/Songbird_(film).xlsx
+++ b/medicine/Maladie à coronavirus 2019/Songbird_(film)/Songbird_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Songbird, ou Phénix[1] au Québec, est un film américain réalisé par Adam Mason, sorti en 2020. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Songbird, ou Phénix au Québec, est un film américain réalisé par Adam Mason, sorti en 2020. 
 Produit par Michael Bay, il s'agit du premier film tourné à Los Angeles pendant la période de confinement aux États-Unis lors de la pandémie de Covid-19. Le film est d'ailleurs inspiré de cette pandémie et se déroule dans un futur où le virus a muté et les mesures de sécurités renforcées.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2024, le monde est encore touché par la pandémie de Covid-19 à la suite de la mutation du SARS-CoV-2. Aux États-Unis, les personnes infectés sont arrachées de leurs domicile et envoyées de force dans des camps, surnommés les Q-Zones.
 À Los Angeles, Nico, un coursier immunisé contre le virus par lequel il a été infecté dans le passé, est en relation avec Sara Garcia, une jeune artiste confinée à son domicile et interdite de tout contact avec l'extérieur. Quand Sara pense avoir été infectée, Nico décide de partir la sauver avant qu'elle ne soit envoyée dans un camp.
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et français : Songbird
@@ -596,7 +612,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">K. J. Apa (VF : Gauthier Battoue ; VQ : Alexandre Bacon) : Nico
 Sofia Carson (VF : Daniela Labbé-Cabrera ; VQ : Célia Gouin-Arsenault) : Sara Garcia
@@ -612,7 +630,7 @@
 Michole Briana White (en) : Alice
 Paul Sloan (VF : Paul Borne ; VQ : Louis-Philippe Dandenault) : Boomer
 Lauren Sivan (VQ : Mélanie Laberge) : la commentatrice de nouvelles
- Source et légende : version québécoise (VQ) sur Doublage.qc.ca[2]
+ Source et légende : version québécoise (VQ) sur Doublage.qc.ca
 </t>
         </is>
       </c>
@@ -643,14 +661,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-Durant les débuts de la pandémie de Covid-19 aux États-Unis, Adam Mason et Simon Boyes commencent à écrire un scénario inspiré des événements et présentent leurs idées au producteur Adam Goodman en mars 2020[3]. Le 19 mai 2020, il est dévoilé que Michael Bay et Eben Davidson se joignaient à Goodman pour produire le projet et Adam Mason est engagé pour le réaliser[4].
-Attribution des rôles
-En juin 2020, Demi Moore, Craig Robinson, Peter Stormare et Paul Walter Hauser rejoignent la distribution du film[5]. Le mois suivant, Bradley Whitford, Jenna Ortega, K. J. Apa et Sofia Carson viennent compléter la distribution. Il est précisé que Apa et Carson incarneront les principaux protagonistes du film[6].
-Avant le début du tournage, les acteurs ont répété à distance et ont été formés à tourner avec les différentes mesures de sécurités mise en place, la pandémie étant toujours en cours[4].
-Tournage
-Le tournage du film débute le 8 juillet 2020, alors que la ville est en plein confinement[7]. Il est interrompu par la SAG-AFTRA, qui accuse la production de ne pas avoir déclaré les mesures de sécurité mises en place lors du tournage ainsi que de ne pas avoir signé les accords adéquats. Finalement, le syndicat donne l'autorisation de reprendre le lendemain[8]. Il s'est donc terminé le 3 août 2020, devenant le premier film tourné dans la ville depuis le début de la période de confinement[9].
-Un protocole de sécurité avait été mis en place durant le tournage : l'équipe devait régulièrement faire des tests diagnostiques, être maximum 40 par jour de tournage, et les acteurs devaient rester séparés le plus possible[3].
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant les débuts de la pandémie de Covid-19 aux États-Unis, Adam Mason et Simon Boyes commencent à écrire un scénario inspiré des événements et présentent leurs idées au producteur Adam Goodman en mars 2020. Le 19 mai 2020, il est dévoilé que Michael Bay et Eben Davidson se joignaient à Goodman pour produire le projet et Adam Mason est engagé pour le réaliser.
 </t>
         </is>
       </c>
@@ -676,12 +693,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sortie</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">En août 2020, STX Entertainment acquiert les droits de distribution du film via sa division STXfilms. La société annonce alors que le film sortira au cinéma en 2021. Néanmoins, en novembre 2020, elle annonce l'annulation de la sortie du film au cinéma et avance sa sortie au 11 décembre 2020 en vidéo à la demande[10].
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juin 2020, Demi Moore, Craig Robinson, Peter Stormare et Paul Walter Hauser rejoignent la distribution du film. Le mois suivant, Bradley Whitford, Jenna Ortega, K. J. Apa et Sofia Carson viennent compléter la distribution. Il est précisé que Apa et Carson incarneront les principaux protagonistes du film.
+Avant le début du tournage, les acteurs ont répété à distance et ont été formés à tourner avec les différentes mesures de sécurités mise en place, la pandémie étant toujours en cours.
 </t>
         </is>
       </c>
@@ -707,13 +731,89 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage du film débute le 8 juillet 2020, alors que la ville est en plein confinement. Il est interrompu par la SAG-AFTRA, qui accuse la production de ne pas avoir déclaré les mesures de sécurité mises en place lors du tournage ainsi que de ne pas avoir signé les accords adéquats. Finalement, le syndicat donne l'autorisation de reprendre le lendemain. Il s'est donc terminé le 3 août 2020, devenant le premier film tourné dans la ville depuis le début de la période de confinement.
+Un protocole de sécurité avait été mis en place durant le tournage : l'équipe devait régulièrement faire des tests diagnostiques, être maximum 40 par jour de tournage, et les acteurs devaient rester séparés le plus possible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Songbird_(film)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Maladie à coronavirus 2019/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Songbird_(film)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En août 2020, STX Entertainment acquiert les droits de distribution du film via sa division STXfilms. La société annonce alors que le film sortira au cinéma en 2021. Néanmoins, en novembre 2020, elle annonce l'annulation de la sortie du film au cinéma et avance sa sortie au 11 décembre 2020 en vidéo à la demande.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Songbird_(film)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Maladie à coronavirus 2019/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Songbird_(film)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Critique
-Avant même la sortie du film, la bande-annonce reçoit un accueil froid de la part des critiques et du public. Il est reproché au film d'exploiter la pandémie, encore en cours, et de romancer le sujet[3].
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant même la sortie du film, la bande-annonce reçoit un accueil froid de la part des critiques et du public. Il est reproché au film d'exploiter la pandémie, encore en cours, et de romancer le sujet.
 </t>
         </is>
       </c>
